--- a/biology/Botanique/Hépatique_des_fontaines/Hépatique_des_fontaines.xlsx
+++ b/biology/Botanique/Hépatique_des_fontaines/Hépatique_des_fontaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patique_des_fontaines</t>
+          <t>Hépatique_des_fontaines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marchantia polymorpha
 L'hépatique des fontaines (Marchantia polymorpha) est une espèce d’hépatiques vivant dans les milieux humides. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patique_des_fontaines</t>
+          <t>Hépatique_des_fontaines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sexuée
-Les thalles (ici des lames vertes fixées au sol par des poils rhizoïdes) sont en réalité de sexes différents : des thalles mâles vont produire des "parapluies" où se développeront les anthéridies (productrices de gamètes mâles, les anthérozoïdes) et des thalles femelles qui produiront des "parapluies" où se développeront des organes femelles, les archégones (producteurs chacun d'un gamète femelle, une oosphère). De la fécondation résulte un zygote diploïde. Il se développe sur place, devient un embryon qui par méioses produit les spores haploïdes. Lorsqu'une spore emportée par le vent, la pluie, arrive sur le sol humide, elle germe pour former un nouveau thalle haploïde.
-Asexuée
-Elle est assurée par les corbeilles à propagules en forme de petites coupes se formant à la surface des thalles.
+          <t>Sexuée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les thalles (ici des lames vertes fixées au sol par des poils rhizoïdes) sont en réalité de sexes différents : des thalles mâles vont produire des "parapluies" où se développeront les anthéridies (productrices de gamètes mâles, les anthérozoïdes) et des thalles femelles qui produiront des "parapluies" où se développeront des organes femelles, les archégones (producteurs chacun d'un gamète femelle, une oosphère). De la fécondation résulte un zygote diploïde. Il se développe sur place, devient un embryon qui par méioses produit les spores haploïdes. Lorsqu'une spore emportée par le vent, la pluie, arrive sur le sol humide, elle germe pour former un nouveau thalle haploïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hépatique_des_fontaines</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9patique_des_fontaines</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Asexuée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est assurée par les corbeilles à propagules en forme de petites coupes se formant à la surface des thalles.
 </t>
         </is>
       </c>
